--- a/input/static_data/cost/season_16/player_cost_GW26.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW26.xlsx
@@ -217,37 +217,37 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L4" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="5">
@@ -1319,37 +1319,37 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="34">
@@ -2383,37 +2383,37 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="62">
@@ -2725,37 +2725,37 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L70" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="71">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="80">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>3800000.0</v>
+        <v>3900000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="95">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L111" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="112">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L122" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="123">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L126" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="127">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="129">
@@ -4967,37 +4967,37 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L129" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="130">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="139">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="168">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="182">
@@ -7133,37 +7133,37 @@
         <v>185.0</v>
       </c>
       <c r="B186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L186" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="187">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>6000000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L199" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="200">
@@ -8121,37 +8121,37 @@
         <v>211.0</v>
       </c>
       <c r="B212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="213">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="214">
@@ -8615,37 +8615,37 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L225" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="226">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="227">
@@ -8691,37 +8691,37 @@
         <v>226.0</v>
       </c>
       <c r="B227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L227" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="228">
@@ -8919,37 +8919,37 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L233" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="234">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="236">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L242" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L250" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="251">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="252">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10325,37 +10325,37 @@
         <v>269.0</v>
       </c>
       <c r="B270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L270" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="271">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L272" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="273">
@@ -10629,37 +10629,37 @@
         <v>277.0</v>
       </c>
       <c r="B278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L278" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="279">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L309" t="n">
-        <v>4700000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="310">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="316">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L319" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="320">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="337">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="349">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13745,37 +13745,37 @@
         <v>359.0</v>
       </c>
       <c r="B360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L360" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="361">
@@ -13783,37 +13783,37 @@
         <v>360.0</v>
       </c>
       <c r="B361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L361" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="362">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="365">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="383">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L387" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="388">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L397" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
     </row>
     <row r="408">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="416">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
     </row>
     <row r="417">
@@ -15987,37 +15987,37 @@
         <v>418.0</v>
       </c>
       <c r="B419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="420">
@@ -16177,37 +16177,37 @@
         <v>423.0</v>
       </c>
       <c r="B424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L424" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="425">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L425" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.17E7</v>
+        <v>1.16E7</v>
       </c>
     </row>
     <row r="430">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L450" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L452" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="453">
@@ -17925,37 +17925,37 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="471">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>9000000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7000000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="491">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19787,37 +19787,37 @@
         <v>518.0</v>
       </c>
       <c r="B519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="520">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="521">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L522" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L527" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="528">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L532" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="533">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L537" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="538">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L550" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="C577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="D577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="E577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="F577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="G577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="H577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="I577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="J577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="K577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
       <c r="L577" t="n">
-        <v>1.0E7</v>
+        <v>9600000.0</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
     </row>
     <row r="583">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L583" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="584">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.14E7</v>
+        <v>1.15E7</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="C585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="D585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="E585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="F585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="G585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="H585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="I585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="J585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="K585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="L585" t="n">
-        <v>1.05E7</v>
+        <v>1.0E7</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22675,37 +22675,37 @@
         <v>594.0</v>
       </c>
       <c r="B595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L595" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="596">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="600">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.12E7</v>
+        <v>1.13E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6500000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23397,37 +23397,37 @@
         <v>613.0</v>
       </c>
       <c r="B614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L614" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="615">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L616" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="618">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="621">
